--- a/unity_mp4_list/unity_learn_mp4_list_2023.xlsx
+++ b/unity_mp4_list/unity_learn_mp4_list_2023.xlsx
@@ -733,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,15 +750,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1103,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -1284,141 +1275,141 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:6">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:6">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:6">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:6">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:6">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" ht="25" customHeight="1"/>
     <row r="28" ht="25" customHeight="1"/>

--- a/unity_mp4_list/unity_learn_mp4_list_2023.xlsx
+++ b/unity_mp4_list/unity_learn_mp4_list_2023.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28110" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="NodeCanvas" sheetId="3" r:id="rId1"/>
+    <sheet name="book catalog" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>NodeCanvas 5 怪物导航到目标点</t>
+  </si>
+  <si>
+    <t>Unity 2D Animation</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -1357,7 +1360,9 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:6">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>

--- a/unity_mp4_list/unity_learn_mp4_list_2023.xlsx
+++ b/unity_mp4_list/unity_learn_mp4_list_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="12540"/>
+    <workbookView windowWidth="22140" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="book catalog" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,27 @@
     <t>other</t>
   </si>
   <si>
+    <t>Unity NodeCanvas</t>
+  </si>
+  <si>
+    <t>NodeCanvas 1 怪物AI从代码方法读取数据来检测是否攻击英雄</t>
+  </si>
+  <si>
+    <t>NodeCanvas 2 怪物播放动画</t>
+  </si>
+  <si>
+    <t>NodeCanvas 3 怪物面向攻击目标</t>
+  </si>
+  <si>
+    <t>NodeCanvas 4 怪物随机使用技能攻击目标</t>
+  </si>
+  <si>
+    <t>NodeCanvas 5 怪物导航到目标点</t>
+  </si>
+  <si>
+    <t>Unity 2D Animation</t>
+  </si>
+  <si>
     <t>Unity UI Builder</t>
   </si>
   <si>
@@ -59,27 +80,6 @@
   </si>
   <si>
     <t>https://www.jianshu.com/p/aadad4a506a7</t>
-  </si>
-  <si>
-    <t>Unity NodeCanvas</t>
-  </si>
-  <si>
-    <t>NodeCanvas 1 怪物AI从代码方法读取数据来检测是否攻击英雄</t>
-  </si>
-  <si>
-    <t>NodeCanvas 2 怪物播放动画</t>
-  </si>
-  <si>
-    <t>NodeCanvas 3 怪物面向攻击目标</t>
-  </si>
-  <si>
-    <t>NodeCanvas 4 怪物随机使用技能攻击目标</t>
-  </si>
-  <si>
-    <t>NodeCanvas 5 怪物导航到目标点</t>
-  </si>
-  <si>
-    <t>Unity 2D Animation</t>
   </si>
 </sst>
 </file>
@@ -746,11 +746,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1105,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -1150,11 +1150,9 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:6">
       <c r="A3" s="3">
@@ -1164,11 +1162,11 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:6">
       <c r="A4" s="3">
@@ -1178,11 +1176,11 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:6">
       <c r="A5" s="3">
@@ -1192,229 +1190,267 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:6">
       <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:6">
       <c r="A7" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:6">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:6">
       <c r="A10" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:6">
       <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:6">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:6">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
       <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:6">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:6">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:6">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:6">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:6">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1"/>
     <row r="28" ht="25" customHeight="1"/>
@@ -1423,7 +1459,7 @@
     <row r="31" ht="25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" display="https://www.jianshu.com/p/aadad4a506a7"/>
+    <hyperlink ref="F21" r:id="rId1" display="https://www.jianshu.com/p/aadad4a506a7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
